--- a/Data/Simple Warrants - 2676828755/1.6/2676828755.xlsx
+++ b/Data/Simple Warrants - 2676828755/1.6/2676828755.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_231219" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Main_250802" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="747">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">questName-&gt;A warrant on [victim_nameFull]</t>
   </si>
   <si>
-    <t xml:space="preserve">questName-&gt;[victim_nameFull]에 대한 현상 수배</t>
+    <t xml:space="preserve">questName-&gt;[victim_nameFull]에 대한 현상수배</t>
   </si>
   <si>
     <t xml:space="preserve">QuestScriptDef+SW_Warrant_Animal.questDescriptionRules.rulesStrings.0</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">questDescription-&gt;[asker_nameFull] from [asker_faction_name] issued a warrant on [victim_nameFull]. They are offering [rewardForDead]$ for you to hunt and deliver one.</t>
   </si>
   <si>
-    <t xml:space="preserve">questDescription-&gt;[asker_faction_name]의 [asker_nameFull](이)가 [victim_nameFull]에 대해 현상수배를 걸었습니다. 사살해온다면 현상금으로 [rewardForDead] 은을 지불할 것입니다.</t>
+    <t xml:space="preserve">questDescription-&gt;[asker_faction_name]의 [asker_nameFull](이)가 [victim_nameFull]에 대해 현상수배를 걸었습니다. [victim_nameFull](을)를 사냥해 가져온다면 현상금으로 [rewardForDead] 은을 지불할 것입니다.</t>
   </si>
   <si>
     <t xml:space="preserve">QuestScriptDef+SW_Warrant_Animal.root.nodes.10.node.nodes.1.label</t>
@@ -262,6 +262,9 @@
     <t xml:space="preserve">questName-&gt;A warrant on [animal_indefinite]</t>
   </si>
   <si>
+    <t xml:space="preserve">questName-&gt;[animal_indefinite]에 대한 현상수배</t>
+  </si>
+  <si>
     <t xml:space="preserve">QuestScriptDef+SW_Warrant_Tame.questDescriptionRules.rulesStrings.0</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t xml:space="preserve">questDescription-&gt;[asker_nameFull] from [asker_faction_name] issued a warrant on [animal_indefinite]. They are offering [reward]$ for you to tame and deliver one.</t>
   </si>
   <si>
+    <t xml:space="preserve">questDescription-&gt;[asker_faction_name]의 [asker_nameFull](이)가 [animal_indefinite]에 대해 현상수배를 걸었습니다. [animal_indefinite](을)를 포획 후 길들여 데려온다면 현상금으로 [reward] 은을 지불할 것입니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">QuestScriptDef+SW_Warrant_Tame.root.nodes.10.node.nodes.1.label</t>
   </si>
   <si>
@@ -547,6 +553,333 @@
     <t xml:space="preserve">r_logentry-&gt;Other</t>
   </si>
   <si>
+    <t xml:space="preserve">r_logentry-&gt;기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;We've got a target in mind. Handle it, and you'll be compensated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;목표는 정해졌다. 처리하면 포상금을 주겠다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;This one's caused enough trouble. Deal with them and earn your reward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 자는 이미 충분한 문제를 일으켰다. 처리하고 보상을 받아라.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;A reward awaits whoever brings this individual in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;해당 인물을 인계해 주시는 분께는 포상을 지급하겠습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;We don't care how it's done. Just make sure it gets done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;일처리만 확실히 할 수 있다면 수단은 상관 없다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Bring this one to justice, and you'll have our gratitude - and payment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;정의를 실현해라. 그리하면 우리의 감사와 보상을 약속하지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;We're offering pay for results. No questions asked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;결과에 따른 보상 지급 예정. 그 외엔 일절 묻지도 따지지도 않을 것.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;This individual has worn out their welcome. Time to collect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 자는 더 이상 두고 볼 이유가 없다. 처리할 때다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Another name on the list. You know what to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;명단에 이름이 하나 늘었다. 해야 할 일은 알겠지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Deal with this target swiftly, and the payout is yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;신속하게 조치해 주신다면 약속한 보상을 지급하겠습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Someone needs to be reminded actions have consequences. Make it happen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 자에게 책임에 대한 대가는 반드시 따른다는 점을 상기시켜 주십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;We're not asking for questions, just results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;문의는 받지 않습니다. 요구한 것만 수행하십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;The price on this one should be motivation enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 정도 값이면 동기부여는 충분하겠지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;They crossed a line. You know what to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;해당 인물은 선을 넘었습니다. 적절한 조치를 기대합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Someone's due a reckoning. We're paying for the delivery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 자에게 인과응보가 무엇인지를 보여줘야 할 때다. 값은 충분히 지불하겠다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Handle this discreetly or loudly. Doesn't matter to us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;은밀히 처리해도 소란을 피워도 괜찮습니다. 요청한 결과만 확보해 주십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Job's yours if you want it. Target info uploaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 일에 관심 있다면 한 번 맡아봐라. 타겟 정보는 준비해 뒀다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Target is known. Contract is open. Make it quick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;대상 확인됨. 의뢰 수행자 물색 중. 가급적 신속히 처리 바람.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;If you’re looking for work, we’ve got something lined up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;일거리를 찾고 계시다면, 적합한 건이 준비되어 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;They’ve stepped out of line. Time to restore order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;이 자는 금기를 범했습니다. 부디 질서를 되찾아 주십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Payment’s ready. Just bring us what we asked for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;대가는 준비되어 있다. 우리가 요청한 것만 가져와라.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Someone’s overdue for a visit. Make it count.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;손봐줘야 할 자가 있다. 성과를 기대하지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;The target’s location won’t stay quiet for long. Move fast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;대상은 곧 거처를 옮길 것입니다. 신속한 대응이 요구됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;Clean job, clean payout. Don't overthink it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;복잡하게 생각할 것 없다. 깔끔히 처리해 준다면 깔끔한 보상을 주지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;One target. One payment. First come, first served.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;타겟 하나. 보상금은 일시불 지급. 선착순.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;We’ve got eyes on a problem. Take care of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;문제를 포착했다. 처리는 부탁한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;I assume we can trust you to handle this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;귀하께 본 건을 맡길 수 있을 것으로 기대합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RulePackDef+SW_Messages.rulePack.rulesStrings.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Messages.rulePack.rulesStrings.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;This is an authorized operation. Proceed as necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_logentry-&gt;정식 승인된 작전. 필요한 대로 진행 바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SitePartDef+SW_Camp.approachOrderString</t>
   </si>
   <si>
@@ -559,6 +892,9 @@
     <t xml:space="preserve">Attack {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">{0} 공격</t>
+  </si>
+  <si>
     <t xml:space="preserve">SitePartDef+SW_Camp.approachingReportString</t>
   </si>
   <si>
@@ -568,6 +904,9 @@
     <t xml:space="preserve">Attacking {0}.</t>
   </si>
   <si>
+    <t xml:space="preserve">{0} 공격 중</t>
+  </si>
+  <si>
     <t xml:space="preserve">SitePartDef+SW_Camp.arrivedLetter</t>
   </si>
   <si>
@@ -577,6 +916,9 @@
     <t xml:space="preserve">There is an enemy outpost in this area.</t>
   </si>
   <si>
+    <t xml:space="preserve">이 지역에 적 초소가 있습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SitePartDef+SW_Camp.label</t>
   </si>
   <si>
@@ -628,7 +970,7 @@
     <t xml:space="preserve">site</t>
   </si>
   <si>
-    <t xml:space="preserve">지역</t>
+    <t xml:space="preserve">현장</t>
   </si>
   <si>
     <t xml:space="preserve">SitePartDef+SW_Site.description</t>
@@ -640,7 +982,7 @@
     <t xml:space="preserve">A site with an animal.</t>
   </si>
   <si>
-    <t xml:space="preserve">동물이 위치하고 있는 지역입니다.</t>
+    <t xml:space="preserve">동물이 있는 현장입니다.</t>
   </si>
   <si>
     <t xml:space="preserve">SitePartDef+SW_ArtifactStash.label</t>
@@ -652,7 +994,7 @@
     <t xml:space="preserve">artifact stash</t>
   </si>
   <si>
-    <t xml:space="preserve">유물 은닉처</t>
+    <t xml:space="preserve">유물 발견지</t>
   </si>
   <si>
     <t xml:space="preserve">SitePartDef+SW_ArtifactStash.description</t>
@@ -664,7 +1006,7 @@
     <t xml:space="preserve">A stash of valuable artifact.</t>
   </si>
   <si>
-    <t xml:space="preserve">귀중한 유물이 숨겨진 은닉처입니다.</t>
+    <t xml:space="preserve">귀중한 유물이 있는 곳입니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.PublicWarrants</t>
@@ -727,6 +1069,9 @@
     <t xml:space="preserve">WANTED</t>
   </si>
   <si>
+    <t xml:space="preserve">수배 중</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WantedFor</t>
   </si>
   <si>
@@ -736,7 +1081,7 @@
     <t xml:space="preserve">for {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{1}에 {0} 혐의로 현상수배됨</t>
+    <t xml:space="preserve">혐의: {0}</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.PostedBy</t>
@@ -748,7 +1093,7 @@
     <t xml:space="preserve">Posted by {0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{0}에 현상수배됨</t>
+    <t xml:space="preserve">게시: {0}</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.Hunt</t>
@@ -760,6 +1105,9 @@
     <t xml:space="preserve">[Hunt]</t>
   </si>
   <si>
+    <t xml:space="preserve">[토벌]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Tame</t>
   </si>
   <si>
@@ -769,6 +1117,9 @@
     <t xml:space="preserve">[Tame]</t>
   </si>
   <si>
+    <t xml:space="preserve">[포획]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.CaravanRequestInfo</t>
   </si>
   <si>
@@ -886,7 +1237,7 @@
     <t xml:space="preserve">Reason:</t>
   </si>
   <si>
-    <t xml:space="preserve">혐의: {0}</t>
+    <t xml:space="preserve">혐의:</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.CapturePayment</t>
@@ -946,7 +1297,7 @@
     <t xml:space="preserve">{FACTION_name} has completed your warrant.</t>
   </si>
   <si>
-    <t xml:space="preserve">{FACTION_name}(은)는 당신의 현상수배를 완료했습니다.</t>
+    <t xml:space="preserve">{FACTION_name}(이)가 당신의 현상수배를 완료했습니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.FactionCompletedWarrantDesc</t>
@@ -958,7 +1309,7 @@
     <t xml:space="preserve">Members of {FACTION_name} are outside of your base with your completed warrant on {1}. They are demanding payment of {2} silver before drop off.</t>
   </si>
   <si>
-    <t xml:space="preserve">{FACTION_name} 구성원들은 {1}에 대한 당신의 현상금을 수령하기 위해 정착지 밖에서 대기하고 있습니다. 그들은 현상수배를 완료하기 전에 현상금인 {2}은을 지불받기를 원하고 있습니다.</t>
+    <t xml:space="preserve">{FACTION_name} 구성원들은 {1}에 대한 현상수배를 완료하기 위해 정착지 밖에서 대기하고 있습니다. 그들은 대상을 넘겨주기 전에 현상금인 {2}은을 지불받기를 원하고 있습니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.PostponePayment</t>
@@ -970,6 +1321,9 @@
     <t xml:space="preserve">Postpone payment for 24 hours.</t>
   </si>
   <si>
+    <t xml:space="preserve">지불을 24시간 연기합니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Pay</t>
   </si>
   <si>
@@ -979,7 +1333,7 @@
     <t xml:space="preserve">Pay {0} silver</t>
   </si>
   <si>
-    <t xml:space="preserve">{0}은을 지불합니다</t>
+    <t xml:space="preserve">{0}은 지불하기</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.NotEnoughSilver</t>
@@ -1003,7 +1357,7 @@
     <t xml:space="preserve">Refuse</t>
   </si>
   <si>
-    <t xml:space="preserve">거절합니다</t>
+    <t xml:space="preserve">거절하기</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.FactionFailedWarrant</t>
@@ -1015,7 +1369,7 @@
     <t xml:space="preserve">{FACTION_name} has failed to complete your warrant on {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">{FACTION_name}(은)는 {1}에 대한 당신의 현상수배를 완료하지 못했습니다.</t>
+    <t xml:space="preserve">{FACTION_name}(은)는 당신의 {1}에 대한 현상수배를 완료하지 못했습니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.WarrantOnYourColonist</t>
@@ -1027,7 +1381,7 @@
     <t xml:space="preserve">Warrant on a colonist: {PAWN_nameDef}</t>
   </si>
   <si>
-    <t xml:space="preserve">현상수배: {PAWN_nameDef}</t>
+    <t xml:space="preserve">정착민 대상 현상수배: {PAWN_nameDef}</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.WarrantOnYourColonistReason</t>
@@ -1039,6 +1393,9 @@
     <t xml:space="preserve">Warrant on a colonist: {PAWN_nameDef}. Reason: {1}</t>
   </si>
   <si>
+    <t xml:space="preserve">정착민 대상 현상수배: {PAWN_nameDef}. 혐의: {1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantOnYourColonistDesc</t>
   </si>
   <si>
@@ -1060,7 +1417,7 @@
     <t xml:space="preserve">Compensate</t>
   </si>
   <si>
-    <t xml:space="preserve">현상금을 지불합니다</t>
+    <t xml:space="preserve">현상금 지불</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.NoEnoughMoneyToCompensate</t>
@@ -1120,7 +1477,7 @@
     <t xml:space="preserve">Your caravan must have {0} to finish this warrant.\nFor tame animal warrants, the animal must be tame and uninjured.</t>
   </si>
   <si>
-    <t xml:space="preserve">이 현상수배를 완료하려면 상단에 {0}(이)가 있어야 합니다.</t>
+    <t xml:space="preserve">이 현상수배를 완료하려면 상단에 {0}(이)가 있어야 합니다.\n동물 포획 현상수배의 경우, 대상 동물이 길들여져 있고 다치지 않았어야 합니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.WillExpireIn</t>
@@ -1168,7 +1525,7 @@
     <t xml:space="preserve">Chance of warrant being made on colonist</t>
   </si>
   <si>
-    <t xml:space="preserve">정착민 대상 현상수배 확률: {0}</t>
+    <t xml:space="preserve">정착민 대상 현상수배 확률</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.ChanceOfWarrantsMadeOnColonist.Desc</t>
@@ -1180,6 +1537,9 @@
     <t xml:space="preserve">When new warrants are posted, this is the chance of a bounty being placed on one of your colonists.</t>
   </si>
   <si>
+    <t xml:space="preserve">새 현상수배가 게시될 때 정착민 중 한 명에게 현상금이 붙을 확률입니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EnableWarrantsOnAnimals</t>
   </si>
   <si>
@@ -1189,7 +1549,7 @@
     <t xml:space="preserve">Enable animal hunting warrants</t>
   </si>
   <si>
-    <t xml:space="preserve">동물 대상 현상수배 활성화</t>
+    <t xml:space="preserve">동물 대상 토벌 현상수배 활성화</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.EnableTamingWarrants</t>
@@ -1201,6 +1561,9 @@
     <t xml:space="preserve">Enable animal taming warrants</t>
   </si>
   <si>
+    <t xml:space="preserve">동물 대상 포획 현상수배 활성화</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EnableWarrantsOnArtifact</t>
   </si>
   <si>
@@ -1234,6 +1597,9 @@
     <t xml:space="preserve">Relationship damage for failed warrant (player-made)</t>
   </si>
   <si>
+    <t xml:space="preserve">현상수배 이행 실패 시 우호도 변화 (플레이어 게시)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.FailedPlayerWarrantRelationshipDamage.Desc</t>
   </si>
   <si>
@@ -1243,6 +1609,9 @@
     <t xml:space="preserve">This is the relationship damage caused when a faction who accepts a player-made warrant fails to complete the warrant.\nSet to zero to disable.</t>
   </si>
   <si>
+    <t xml:space="preserve">플레이어가 게시한 현상수배를 수락한 세력이 시간 안에 현상수배를 완료하지 못할 경우 이 수치만큼 우호도가 변화합니다.\n0으로 설정하면 비활성화됩니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.FailedAIWarrantRelationshipDamage</t>
   </si>
   <si>
@@ -1252,6 +1621,9 @@
     <t xml:space="preserve">Relationship damage for failed warrant (player-accepted)</t>
   </si>
   <si>
+    <t xml:space="preserve">현상수배 이행 실패 시 우호도 변화 (플레이어 수락)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.FailedAIWarrantRelationshipDamage.Desc</t>
   </si>
   <si>
@@ -1261,6 +1633,9 @@
     <t xml:space="preserve">This is the relationship damage caused when the player accepts a warrant but fails to complete it on time.\nSet to zero to disable.</t>
   </si>
   <si>
+    <t xml:space="preserve">플레이어가 현상수배를 수락 후 시간 안에 완료하지 못할 경우 이 수치만큼 우호도가 변화합니다.\n0으로 설정하면 비활성화됩니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantRewardMax</t>
   </si>
   <si>
@@ -1270,6 +1645,9 @@
     <t xml:space="preserve">Maximum warrant reward percentage</t>
   </si>
   <si>
+    <t xml:space="preserve">최대 수령 가능 현상금 비율</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantRewardMax.Desc</t>
   </si>
   <si>
@@ -1279,6 +1657,9 @@
     <t xml:space="preserve">You will not recieve warrants if their reward value exceeds this percentage of your colony wealth.\nFor example, if your colony wealth is 100$ and this is set to 5%, you will never get warrants worth more than 5$.\n\nSet to 100% to disable.</t>
   </si>
   <si>
+    <t xml:space="preserve">현상수배로 받을 수 있는 현상금의 최대치가 기지가치 대비 이 비율을 넘지 않게 됩니다.\n예를 들어 기지가치가 $100이고 이 비율을 5%로 설정했다면, 현상금이 $5를 초과하는 현상수배를 받지 않게 됩니다.\n\n100%로 설정하면 비활성화됩니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.warrantRewardScaling</t>
   </si>
   <si>
@@ -1288,6 +1669,9 @@
     <t xml:space="preserve">Enable warrant reward scaling</t>
   </si>
   <si>
+    <t xml:space="preserve">기지가치 비례 현상금 스케일링 활성화</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.warrantRewardScaling.Desc</t>
   </si>
   <si>
@@ -1297,6 +1681,9 @@
     <t xml:space="preserve">If enabled, warrant rewards will scale with colony wealth.</t>
   </si>
   <si>
+    <t xml:space="preserve">활성화 시 현상수배로 받을 수 있는 현상금이 기지가치에 비례하게 됩니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.BountyHunterRaidScale</t>
   </si>
   <si>
@@ -1306,6 +1693,9 @@
     <t xml:space="preserve">Bounty hunter raid scale</t>
   </si>
   <si>
+    <t xml:space="preserve">현상금 사냥꾼 습격 규모</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.BountyHunterRaidScale.Desc</t>
   </si>
   <si>
@@ -1315,6 +1705,9 @@
     <t xml:space="preserve">If there is a warrant out on one of your colonists, you will be raided by bounty hunters.\nThis value controls the power of those raiding parties. Lower values make the raid weaker, higher values make it stronger.</t>
   </si>
   <si>
+    <t xml:space="preserve">정착민이 현상수배 중일 경우 현상금 사냥꾼들로부터 습격이 오게 됩니다.\n이 수치에 따라 해당 습격의 습격 점수가 변동됩니다. 수치가 낮을수록 더 약한 습격, 높을수록 더 강한 습격이 오게 됩니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantGenMTB</t>
   </si>
   <si>
@@ -1324,6 +1717,9 @@
     <t xml:space="preserve">Average warrant generation interval</t>
   </si>
   <si>
+    <t xml:space="preserve">새 현상수배 평균 생성 간격</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantGenMTB.Desc</t>
   </si>
   <si>
@@ -1333,6 +1729,9 @@
     <t xml:space="preserve">The average time, in days, between new warrants being posted.</t>
   </si>
   <si>
+    <t xml:space="preserve">새 현상수배가 게시될 때까지 걸리는 평균 시간입니다. (단위: 일) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.BountyRaidGenMTB</t>
   </si>
   <si>
@@ -1342,6 +1741,9 @@
     <t xml:space="preserve">Average raid interval</t>
   </si>
   <si>
+    <t xml:space="preserve">평균 습격 간격</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.BountyRaidGenMTB.Desc</t>
   </si>
   <si>
@@ -1351,6 +1753,9 @@
     <t xml:space="preserve">The average interval, in days, between bounty hunter raids.</t>
   </si>
   <si>
+    <t xml:space="preserve">현상금 사냥꾼 습격 사이의 평균 간격입니다. (단위: 일) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Rewards</t>
   </si>
   <si>
@@ -1360,6 +1765,9 @@
     <t xml:space="preserve">Rewards</t>
   </si>
   <si>
+    <t xml:space="preserve">현상금</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.General</t>
   </si>
   <si>
@@ -1369,6 +1777,9 @@
     <t xml:space="preserve">General</t>
   </si>
   <si>
+    <t xml:space="preserve">일반</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Raids</t>
   </si>
   <si>
@@ -1378,6 +1789,9 @@
     <t xml:space="preserve">Raids</t>
   </si>
   <si>
+    <t xml:space="preserve">습격</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Search</t>
   </si>
   <si>
@@ -1483,7 +1897,7 @@
     <t xml:space="preserve">{FACTION_name} has dropped your warrant on {1} because they are enemies now.</t>
   </si>
   <si>
-    <t xml:space="preserve">{FACTION_name}(은)는 이제 적대적이며, 따라서 {1}에 대한 현상수배는 무효화되었습니다.</t>
+    <t xml:space="preserve">{FACTION_name}(와)과 적대 관계가 되어 당신의 {1}에 대한 현상수배 이행이 중단되었습니다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.TooManyPlayerWarrants</t>
@@ -1495,6 +1909,9 @@
     <t xml:space="preserve">You have already posted the maximum number of simultaneous warrants ({0}).\nWait for them to be completed or remove them before making a new one.</t>
   </si>
   <si>
+    <t xml:space="preserve">동시에 게시할 수 있는 현상수배의 최대치 ({0}) 에 도달했습니다.\n새 현상수배를 게시하려면 게시한 현상수배가 완료될 때까지 기다리거나 제거하세요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Torture</t>
   </si>
   <si>
@@ -1504,6 +1921,9 @@
     <t xml:space="preserve">Torture</t>
   </si>
   <si>
+    <t xml:space="preserve">고문</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Poaching</t>
   </si>
   <si>
@@ -1513,6 +1933,9 @@
     <t xml:space="preserve">Poaching</t>
   </si>
   <si>
+    <t xml:space="preserve">밀렵</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Assault</t>
   </si>
   <si>
@@ -1531,6 +1954,9 @@
     <t xml:space="preserve">Fraud</t>
   </si>
   <si>
+    <t xml:space="preserve">사기</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.RaidReasonKillCapture</t>
   </si>
   <si>
@@ -1540,6 +1966,9 @@
     <t xml:space="preserve">They are looking to kill or capture {PAWN_nameDef} due to {1}.</t>
   </si>
   <si>
+    <t xml:space="preserve">이들은 {1} 혐의로 수배 중인 {PAWN_nameDef}(을)를 사살 또는 생포하는 것이 목적입니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.RaidReasonCapture</t>
   </si>
   <si>
@@ -1549,6 +1978,9 @@
     <t xml:space="preserve">They are looking to capture {PAWN_nameDef} due to {1}.</t>
   </si>
   <si>
+    <t xml:space="preserve">이들은 {1} 혐의로 수배 중인 {PAWN_nameDef}(을)를 생포하는 것이 목적입니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.RaidReasonKill</t>
   </si>
   <si>
@@ -1558,6 +1990,9 @@
     <t xml:space="preserve">They are looking to kill {PAWN_nameDef} due to {1}.</t>
   </si>
   <si>
+    <t xml:space="preserve">이들은 {1} 혐의로 수배 중인 {PAWN_nameDef}(을)를 사살하는 것이 목적입니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Delay24Hours</t>
   </si>
   <si>
@@ -1567,6 +2002,9 @@
     <t xml:space="preserve">Postpone for 24 hours</t>
   </si>
   <si>
+    <t xml:space="preserve">지불을 24시간 연기하기</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.FactionFilter</t>
   </si>
   <si>
@@ -1574,6 +2012,9 @@
   </si>
   <si>
     <t xml:space="preserve">Faction Filter: {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세력 필터: {0}</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+SW.ConfirmationPrompt</t>
@@ -1586,6 +2027,10 @@
 This will negatively impact relations with {1}!</t>
   </si>
   <si>
+    <t xml:space="preserve">정말로 {PAWN_nameDef}(을)를 현상수배하시겠습니까?
+{1}(와)과의 관계가 악화될 것입니다!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantCompletedByPods</t>
   </si>
   <si>
@@ -1595,6 +2040,9 @@
     <t xml:space="preserve">{0} has sent the reward via transport pods for the completed warrant.</t>
   </si>
   <si>
+    <t xml:space="preserve">{0}(이)가 현상수배 이행의 대가로 현상금을 수송 포드로 보냈습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.ReturnWarrantViaTransportPods</t>
   </si>
   <si>
@@ -1604,6 +2052,9 @@
     <t xml:space="preserve">Return warrant via transport pods ({0})</t>
   </si>
   <si>
+    <t xml:space="preserve">수송 포드로 현상수배 완료하기 ({0})</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EnableWarrantsOnPoaching</t>
   </si>
   <si>
@@ -1613,6 +2064,9 @@
     <t xml:space="preserve">Enable warrants on poaching</t>
   </si>
   <si>
+    <t xml:space="preserve">밀렵 혐의로 수배 활성화</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EnableWarrantsOnFraud</t>
   </si>
   <si>
@@ -1622,6 +2076,9 @@
     <t xml:space="preserve">Enable warrants on fraud</t>
   </si>
   <si>
+    <t xml:space="preserve">사기 혐의로 수배 활성화</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EnableWarrantsOnAssault</t>
   </si>
   <si>
@@ -1631,6 +2088,9 @@
     <t xml:space="preserve">Enable warrants on assault</t>
   </si>
   <si>
+    <t xml:space="preserve">습격 혐의로 수배 활성화</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EnableWarrantsOnTorture</t>
   </si>
   <si>
@@ -1640,6 +2100,9 @@
     <t xml:space="preserve">Enable warrants on torture</t>
   </si>
   <si>
+    <t xml:space="preserve">고문 혐의로 수배 활성화</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.WarrantDetails</t>
   </si>
   <si>
@@ -1649,6 +2112,9 @@
     <t xml:space="preserve">Warrant details</t>
   </si>
   <si>
+    <t xml:space="preserve">현상수배 정보</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.ThreatLevelPoints</t>
   </si>
   <si>
@@ -1658,6 +2124,9 @@
     <t xml:space="preserve">{0} Points</t>
   </si>
   <si>
+    <t xml:space="preserve">{0}점</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.NameLabel</t>
   </si>
   <si>
@@ -1667,6 +2136,9 @@
     <t xml:space="preserve">NAME: {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">이름: {0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.RaceLabel</t>
   </si>
   <si>
@@ -1676,6 +2148,9 @@
     <t xml:space="preserve">RACE: {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">종족: {0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.AgeLabel</t>
   </si>
   <si>
@@ -1685,6 +2160,9 @@
     <t xml:space="preserve">AGE: {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">나이: {0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.AllianceLabel</t>
   </si>
   <si>
@@ -1694,6 +2172,9 @@
     <t xml:space="preserve">ALLIANCE: {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">동맹: {0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.MessageFromFaction</t>
   </si>
   <si>
@@ -1703,6 +2184,9 @@
     <t xml:space="preserve">Message From {0}</t>
   </si>
   <si>
+    <t xml:space="preserve">{0}(으)로부터의 메시지</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Messages</t>
   </si>
   <si>
@@ -1712,6 +2196,9 @@
     <t xml:space="preserve">Messages</t>
   </si>
   <si>
+    <t xml:space="preserve">메시지</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.EstimatedThreatLevel</t>
   </si>
   <si>
@@ -1721,6 +2208,9 @@
     <t xml:space="preserve">Estimated Threat Level</t>
   </si>
   <si>
+    <t xml:space="preserve">예상 위협 강도</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Message</t>
   </si>
   <si>
@@ -1739,6 +2229,9 @@
     <t xml:space="preserve">for Retrieval</t>
   </si>
   <si>
+    <t xml:space="preserve">사유: 회수</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.ForTaming</t>
   </si>
   <si>
@@ -1748,6 +2241,9 @@
     <t xml:space="preserve">for Taming</t>
   </si>
   <si>
+    <t xml:space="preserve">사유: 포획</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+SW.Warrant</t>
   </si>
   <si>
@@ -1764,6 +2260,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토벌</t>
   </si>
 </sst>
 </file>
@@ -1845,13 +2344,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2046,10 +2549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2058,8 +2561,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="8" style="1" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.63"/>
   </cols>
@@ -2441,7 +2944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -2454,2235 +2957,2898 @@
       <c r="E23" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>428</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>421</v>
+        <v>440</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>444</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>436</v>
+        <v>460</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>464</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>468</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>472</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>448</v>
+        <v>476</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>520</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>528</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>532</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>502</v>
+        <v>536</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>540</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>508</v>
+        <v>544</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>548</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>514</v>
+        <v>552</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>517</v>
+        <v>556</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>520</v>
+        <v>560</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>564</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>526</v>
+        <v>568</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>572</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>535</v>
+        <v>580</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>538</v>
+        <v>584</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>541</v>
+        <v>588</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>592</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>596</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>600</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>608</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>557</v>
+        <v>610</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>612</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>560</v>
+        <v>614</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>561</v>
+        <v>615</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>562</v>
+        <v>616</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>564</v>
+        <v>619</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>620</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>566</v>
+        <v>622</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>567</v>
+        <v>623</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>571</v>
+        <v>628</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>574</v>
+        <v>632</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>577</v>
+        <v>636</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>580</v>
+        <v>640</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="45.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
